--- a/biology/Botanique/James_Mourant_Du_Port/James_Mourant_Du_Port.xlsx
+++ b/biology/Botanique/James_Mourant_Du_Port/James_Mourant_Du_Port.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Mourant Du Port (14 avril 1832 – 21 février 1899) est un chanoine et mycologue anglais, né à Saint Pierre Port (Guernesey), 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Elizabeth College et obtient une bourse d'études pour le Gonville and Caius College de Cambridge où il obtient son baccalauréat en 1852 et enseigne, avec le titre de Maître de conférence en hébreu, de 1855 à 1862, jusqu'à sa nomination de vicaire de Mattishall (Norfolk). Il y reste jusqu'en 1884, date à laquelle il est nommé recteur de Denver (Norfolk), jusqu'à sa mort le 21 février 1899.
 Une notice nécrologique parue dans le bulletin de la British Mycological Society déclare qu'il « s'intéressait vivement aux sciences naturelles, son plus grand plaisir étant l'étude de la botanique dont il possédait de bonnes connaissances pratiques. » 
@@ -549,10 +563,12 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Fungoid Diseases of Cereals, Transactions of the Norfolk and Norwich Naturalists Society Vol. 3, p. 194
-Notes on some of the Rarer Fungi found in or near Mattishall in 1880, Transactions - Norfolk and Norwich Naturalists' Society, Volume 3 p. 199-203[1]
+Notes on some of the Rarer Fungi found in or near Mattishall in 1880, Transactions - Norfolk and Norwich Naturalists' Society, Volume 3 p. 199-203
 "On some species of Tricholoma  not easily distinguished,"  Wool. Trans., 1883.
 "6th the colours of the fungi as indicated by the Latin words used by Fries," Ib., p.113.
 "The unexpected   appearance of two species of fungi in a field quite  recently under cultivation," Ib. 1890, p.122.
